--- a/Pacman performances.xlsx
+++ b/Pacman performances.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Desktop\Projects\Pacman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A20322-95F9-410A-9542-D2F3EE0C0EE8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9597151-2639-4C4D-8E52-50F75FC06200}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{30520288-08B9-416B-8B7D-E5438A79DC05}"/>
+    <workbookView xWindow="4128" yWindow="108" windowWidth="8100" windowHeight="8964" xr2:uid="{30520288-08B9-416B-8B7D-E5438A79DC05}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Medium</t>
   </si>
@@ -193,6 +193,30 @@
   </si>
   <si>
     <t>489 / 0</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Small (ghost)</t>
+  </si>
+  <si>
+    <t>695 / 0.76</t>
+  </si>
+  <si>
+    <t>169 / 0.34</t>
+  </si>
+  <si>
+    <t>34 / 0.24</t>
+  </si>
+  <si>
+    <t>632 / 0.67</t>
+  </si>
+  <si>
+    <t>553 / 0.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2 / 21</t>
   </si>
 </sst>
 </file>
@@ -544,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0BF4B7-2544-46CE-B116-6AE00D1A15B7}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,6 +762,34 @@
         <v>53</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
